--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/hoofdfunctie_stedenbouw/hoofdfunctie_stedenbouw.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/hoofdfunctie_stedenbouw/hoofdfunctie_stedenbouw.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>_id</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
         <v>_type</v>

--- a/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/hoofdfunctie_stedenbouw/hoofdfunctie_stedenbouw.xlsx
+++ b/src/main/resources/be/vlaanderen/omgeving/data/id/conceptscheme/hoofdfunctie_stedenbouw/hoofdfunctie_stedenbouw.xlsx
@@ -407,7 +407,7 @@
         <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>_type</v>
+        <v>type</v>
       </c>
       <c r="C1" t="str">
         <v>definition</v>
